--- a/excel/collective/zestawy_dla_uczniow/zestaw_006.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_006.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
   <si>
     <t>ZESTAW ZADAŃ NR 6 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +61,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Aleksander Lewandowski</t>
-  </si>
-  <si>
-    <t>Zuzanna Kubiak</t>
-  </si>
-  <si>
-    <t>Antoni Kowalczyk</t>
-  </si>
-  <si>
-    <t>Mikołaj Krawczyk</t>
-  </si>
-  <si>
-    <t>Anna Kaźmierczak</t>
+    <t>Zuzanna Borkowska</t>
+  </si>
+  <si>
+    <t>Maja Wójcik</t>
+  </si>
+  <si>
+    <t>Lena Wilk</t>
+  </si>
+  <si>
+    <t>Hanna Kaźmierczak</t>
+  </si>
+  <si>
+    <t>Oliwia Kaźmierczak</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -160,112 +160,112 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Ołówek HB</t>
+  </si>
+  <si>
+    <t>1,50</t>
+  </si>
+  <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>0,60</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
+    <t>1,60</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>4,70</t>
+  </si>
+  <si>
+    <t>Linijka 30 cm</t>
+  </si>
+  <si>
+    <t>2,20</t>
+  </si>
+  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
+    <t>4,30</t>
+  </si>
+  <si>
+    <t>SUMA:</t>
+  </si>
+  <si>
+    <t>ZESTAW ZADAŃ NR 6 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
+  </si>
+  <si>
+    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
+  </si>
+  <si>
+    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
+  </si>
+  <si>
+    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
+  </si>
+  <si>
+    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
+  </si>
+  <si>
+    <t>Styczeń:</t>
+  </si>
+  <si>
+    <t>Zeszyt</t>
+  </si>
+  <si>
+    <t>12,13</t>
+  </si>
+  <si>
+    <t>Ołówek</t>
+  </si>
+  <si>
+    <t>19,40</t>
+  </si>
+  <si>
+    <t>Długopis</t>
+  </si>
+  <si>
+    <t>19,82</t>
+  </si>
+  <si>
+    <t>Linijka</t>
+  </si>
+  <si>
+    <t>13,63</t>
+  </si>
+  <si>
+    <t>Gumka</t>
+  </si>
+  <si>
+    <t>1,14</t>
+  </si>
+  <si>
+    <t>Razem Styczeń:</t>
+  </si>
+  <si>
+    <t>Luty:</t>
+  </si>
+  <si>
+    <t>7,38</t>
+  </si>
+  <si>
     <t>4,50</t>
   </si>
   <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>2,80</t>
-  </si>
-  <si>
-    <t>Farby plakatowe 12 kolorów</t>
-  </si>
-  <si>
-    <t>16,90</t>
-  </si>
-  <si>
-    <t>Cyrkiel</t>
-  </si>
-  <si>
-    <t>11,80</t>
-  </si>
-  <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>1,30</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>6,20</t>
-  </si>
-  <si>
-    <t>SUMA:</t>
-  </si>
-  <si>
-    <t>ZESTAW ZADAŃ NR 6 - CZĘŚĆ 3: SPRZEDAŻ MIESIĘCZNA</t>
-  </si>
-  <si>
-    <t>Poniżej znajduje się sprzedaż produktów w trzech miesiącach.</t>
-  </si>
-  <si>
-    <t>Oblicz "Razem" dla każdego produktu w każdym miesiącu (cena × ilość).</t>
-  </si>
-  <si>
-    <t>Następnie oblicz "Razem" dla każdego miesiąca (suma wszystkich produktów).</t>
-  </si>
-  <si>
-    <t>Na końcu oblicz sumę sprzedaży z wszystkich trzech miesięcy.</t>
-  </si>
-  <si>
-    <t>Styczeń:</t>
-  </si>
-  <si>
-    <t>Zeszyt</t>
-  </si>
-  <si>
-    <t>5,99</t>
-  </si>
-  <si>
-    <t>Ołówek</t>
-  </si>
-  <si>
-    <t>6,59</t>
-  </si>
-  <si>
-    <t>Długopis</t>
-  </si>
-  <si>
-    <t>11,59</t>
-  </si>
-  <si>
-    <t>Linijka</t>
-  </si>
-  <si>
-    <t>26,03</t>
-  </si>
-  <si>
-    <t>Gumka</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>Razem Styczeń:</t>
-  </si>
-  <si>
-    <t>Luty:</t>
-  </si>
-  <si>
-    <t>2,59</t>
-  </si>
-  <si>
-    <t>28,53</t>
-  </si>
-  <si>
-    <t>11,76</t>
-  </si>
-  <si>
-    <t>10,47</t>
-  </si>
-  <si>
-    <t>10,00</t>
+    <t>30,04</t>
+  </si>
+  <si>
+    <t>7,22</t>
+  </si>
+  <si>
+    <t>5,23</t>
   </si>
   <si>
     <t>Razem Luty:</t>
@@ -274,19 +274,19 @@
     <t>Marzec:</t>
   </si>
   <si>
-    <t>10,73</t>
-  </si>
-  <si>
-    <t>11,75</t>
-  </si>
-  <si>
-    <t>22,57</t>
-  </si>
-  <si>
-    <t>19,08</t>
-  </si>
-  <si>
-    <t>5,76</t>
+    <t>12,46</t>
+  </si>
+  <si>
+    <t>12,66</t>
+  </si>
+  <si>
+    <t>18,77</t>
+  </si>
+  <si>
+    <t>30,31</t>
+  </si>
+  <si>
+    <t>6,63</t>
   </si>
   <si>
     <t>Razem Marzec:</t>
@@ -340,37 +340,40 @@
     <t>Czy pasek?</t>
   </si>
   <si>
-    <t>Szymon</t>
-  </si>
-  <si>
-    <t>Woźniak</t>
-  </si>
-  <si>
-    <t>Oliwia</t>
-  </si>
-  <si>
-    <t>Jaworska</t>
-  </si>
-  <si>
-    <t>Mikołaj</t>
-  </si>
-  <si>
-    <t>Kowalski</t>
-  </si>
-  <si>
-    <t>Julia</t>
-  </si>
-  <si>
-    <t>Kubiak</t>
-  </si>
-  <si>
-    <t>Wójcik</t>
-  </si>
-  <si>
-    <t>Kacper</t>
-  </si>
-  <si>
-    <t>Wojciechowski</t>
+    <t>Zuzanna</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Piekarska</t>
+  </si>
+  <si>
+    <t>Maja</t>
+  </si>
+  <si>
+    <t>Olszewska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Górska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Czarnecka</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -406,130 +409,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Jan Wójcik</t>
-  </si>
-  <si>
-    <t>15.11.1979</t>
-  </si>
-  <si>
-    <t>3 266,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kozłowski</t>
-  </si>
-  <si>
-    <t>10.08.2005</t>
-  </si>
-  <si>
-    <t>8 488,00 zł</t>
-  </si>
-  <si>
-    <t>Kacper Kowalski</t>
-  </si>
-  <si>
-    <t>04.05.1998</t>
-  </si>
-  <si>
-    <t>6 527,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Kowalski</t>
-  </si>
-  <si>
-    <t>28.02.1982</t>
-  </si>
-  <si>
-    <t>6 202,00 zł</t>
-  </si>
-  <si>
-    <t>Wojciech Krawczyk</t>
-  </si>
-  <si>
-    <t>04.02.2003</t>
-  </si>
-  <si>
-    <t>11 893,00 zł</t>
-  </si>
-  <si>
-    <t>Hanna Król</t>
-  </si>
-  <si>
-    <t>18.08.1979</t>
-  </si>
-  <si>
-    <t>13 160,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Wojciechowski</t>
-  </si>
-  <si>
-    <t>21.11.1975</t>
-  </si>
-  <si>
-    <t>8 732,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Nowak</t>
-  </si>
-  <si>
-    <t>11.06.1997</t>
-  </si>
-  <si>
-    <t>12 702,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Wilk</t>
-  </si>
-  <si>
-    <t>16.09.1991</t>
-  </si>
-  <si>
-    <t>6 105,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Urbaniak</t>
-  </si>
-  <si>
-    <t>07.05.2005</t>
-  </si>
-  <si>
-    <t>6 685,00 zł</t>
-  </si>
-  <si>
-    <t>Mikołaj Wójcik</t>
-  </si>
-  <si>
-    <t>28.01.1984</t>
-  </si>
-  <si>
-    <t>3 208,00 zł</t>
-  </si>
-  <si>
-    <t>Adam Kowalski</t>
-  </si>
-  <si>
-    <t>22.06.1981</t>
-  </si>
-  <si>
-    <t>7 022,00 zł</t>
-  </si>
-  <si>
-    <t>Antoni Wiśniewski</t>
-  </si>
-  <si>
-    <t>13.09.1987</t>
-  </si>
-  <si>
-    <t>5 867,00 zł</t>
-  </si>
-  <si>
-    <t>Julia Sikorska</t>
-  </si>
-  <si>
-    <t>06.09.1982</t>
-  </si>
-  <si>
-    <t>8 354,00 zł</t>
+    <t>Aleksander Piotrowski</t>
+  </si>
+  <si>
+    <t>12.03.1998</t>
+  </si>
+  <si>
+    <t>8 953,00 zł</t>
+  </si>
+  <si>
+    <t>Antoni Woźniak</t>
+  </si>
+  <si>
+    <t>03.04.1987</t>
+  </si>
+  <si>
+    <t>14 829,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Czarnecka</t>
+  </si>
+  <si>
+    <t>21.05.1987</t>
+  </si>
+  <si>
+    <t>7 352,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Czarnecka</t>
+  </si>
+  <si>
+    <t>28.08.1992</t>
+  </si>
+  <si>
+    <t>5 476,00 zł</t>
+  </si>
+  <si>
+    <t>Mikołaj Grabowski</t>
+  </si>
+  <si>
+    <t>18.04.1990</t>
+  </si>
+  <si>
+    <t>10 798,00 zł</t>
+  </si>
+  <si>
+    <t>Kacper Grabowski</t>
+  </si>
+  <si>
+    <t>25.05.1994</t>
+  </si>
+  <si>
+    <t>13 554,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Kaźmierczak</t>
+  </si>
+  <si>
+    <t>21.01.1979</t>
+  </si>
+  <si>
+    <t>14 152,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Mazur</t>
+  </si>
+  <si>
+    <t>08.06.1978</t>
+  </si>
+  <si>
+    <t>12 441,00 zł</t>
+  </si>
+  <si>
+    <t>Oliwia Maciejewska</t>
+  </si>
+  <si>
+    <t>19.12.1982</t>
+  </si>
+  <si>
+    <t>13 376,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Jaworska</t>
+  </si>
+  <si>
+    <t>19.10.1991</t>
+  </si>
+  <si>
+    <t>14 215,00 zł</t>
+  </si>
+  <si>
+    <t>Julia Jaworska</t>
+  </si>
+  <si>
+    <t>22.01.1978</t>
+  </si>
+  <si>
+    <t>8 603,00 zł</t>
+  </si>
+  <si>
+    <t>Zuzanna Malinowska</t>
+  </si>
+  <si>
+    <t>02.05.1987</t>
+  </si>
+  <si>
+    <t>2 636,00 zł</t>
+  </si>
+  <si>
+    <t>Wojciech Kwiatkowski</t>
+  </si>
+  <si>
+    <t>08.02.2003</t>
+  </si>
+  <si>
+    <t>4 197,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Dąbrowski</t>
+  </si>
+  <si>
+    <t>27.06.1993</t>
+  </si>
+  <si>
+    <t>9 473,00 zł</t>
   </si>
   <si>
     <t>OBLICZENIA:</t>
@@ -601,289 +604,304 @@
     <t>Województwo</t>
   </si>
   <si>
-    <t>Styczeń</t>
+    <t>czerwiec</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>1 363,00 zł</t>
+  </si>
+  <si>
+    <t>1 567,00 zł</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>warmińsko-mazurskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Konsola do gier</t>
+  </si>
+  <si>
+    <t>1 057,00 zł</t>
+  </si>
+  <si>
+    <t>1 173,00 zł</t>
+  </si>
+  <si>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Zasilacz 650W</t>
+  </si>
+  <si>
+    <t>1 099,00 zł</t>
+  </si>
+  <si>
+    <t>1 352,00 zł</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Mysz gamingowa</t>
+  </si>
+  <si>
+    <t>1 101,00 zł</t>
+  </si>
+  <si>
+    <t>1 475,00 zł</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>1 118,00 zł</t>
+  </si>
+  <si>
+    <t>1 532,00 zł</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>1 372,00 zł</t>
+  </si>
+  <si>
+    <t>1 825,00 zł</t>
+  </si>
+  <si>
+    <t>lubuskie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>1 395,00 zł</t>
+  </si>
+  <si>
+    <t>1 758,00 zł</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>1 329,00 zł</t>
+  </si>
+  <si>
+    <t>1 515,00 zł</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>899,00 zł</t>
+  </si>
+  <si>
+    <t>1 259,00 zł</t>
+  </si>
+  <si>
+    <t>śląskie</t>
+  </si>
+  <si>
+    <t>luty</t>
   </si>
   <si>
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>648,00 zł</t>
-  </si>
-  <si>
-    <t>778,00 zł</t>
-  </si>
-  <si>
-    <t>Piotr Wiśniewski</t>
-  </si>
-  <si>
-    <t>warmińsko-mazurskie</t>
-  </si>
-  <si>
-    <t>Luty</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>1 009,00 zł</t>
-  </si>
-  <si>
-    <t>1 281,00 zł</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
-  </si>
-  <si>
-    <t>lubelskie</t>
-  </si>
-  <si>
-    <t>Marzec</t>
-  </si>
-  <si>
-    <t>1 444,00 zł</t>
-  </si>
-  <si>
-    <t>1 892,00 zł</t>
+    <t>1 435,00 zł</t>
+  </si>
+  <si>
+    <t>1 765,00 zł</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>1 155,00 zł</t>
+  </si>
+  <si>
+    <t>1 467,00 zł</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>715,00 zł</t>
+  </si>
+  <si>
+    <t>987,00 zł</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Obudowa gamingowa</t>
+  </si>
+  <si>
+    <t>1 334,00 zł</t>
+  </si>
+  <si>
+    <t>1 561,00 zł</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>1 471,00 zł</t>
+  </si>
+  <si>
+    <t>1 677,00 zł</t>
+  </si>
+  <si>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>1 232,00 zł</t>
+  </si>
+  <si>
+    <t>1 355,00 zł</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>712,00 zł</t>
+  </si>
+  <si>
+    <t>997,00 zł</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>1 208,00 zł</t>
+  </si>
+  <si>
+    <t>1 401,00 zł</t>
+  </si>
+  <si>
+    <t>1 396,00 zł</t>
+  </si>
+  <si>
+    <t>1 564,00 zł</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>724,00 zł</t>
+  </si>
+  <si>
+    <t>854,00 zł</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>1 235,00 zł</t>
+  </si>
+  <si>
+    <t>1 544,00 zł</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>1 061,00 zł</t>
+  </si>
+  <si>
+    <t>1 316,00 zł</t>
+  </si>
+  <si>
+    <t>1 408,00 zł</t>
+  </si>
+  <si>
+    <t>1 788,00 zł</t>
   </si>
   <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
-    <t>mazowieckie</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>1 301,00 zł</t>
-  </si>
-  <si>
-    <t>1 756,00 zł</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>1 419,00 zł</t>
-  </si>
-  <si>
-    <t>1 916,00 zł</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>1 238,00 zł</t>
-  </si>
-  <si>
-    <t>1 498,00 zł</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
-    <t>1 731,00 zł</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Pamięć RAM 16GB</t>
-  </si>
-  <si>
-    <t>948,00 zł</t>
-  </si>
-  <si>
-    <t>1 185,00 zł</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>1 426,00 zł</t>
-  </si>
-  <si>
-    <t>1 711,00 zł</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>1 302,00 zł</t>
-  </si>
-  <si>
-    <t>1 758,00 zł</t>
-  </si>
-  <si>
-    <t>Krzysztof Lewandowski</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>1 008,00 zł</t>
-  </si>
-  <si>
-    <t>1 250,00 zł</t>
-  </si>
-  <si>
-    <t>Mikrofon studyjny</t>
-  </si>
-  <si>
-    <t>852,00 zł</t>
-  </si>
-  <si>
-    <t>1 039,00 zł</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>1 056,00 zł</t>
-  </si>
-  <si>
-    <t>1 394,00 zł</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Płyta główna</t>
-  </si>
-  <si>
-    <t>1 450,00 zł</t>
-  </si>
-  <si>
-    <t>1 726,00 zł</t>
-  </si>
-  <si>
-    <t>976,00 zł</t>
-  </si>
-  <si>
-    <t>1 122,00 zł</t>
-  </si>
-  <si>
-    <t>1 108,00 zł</t>
-  </si>
-  <si>
-    <t>1 451,00 zł</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Laptop Gaming i7</t>
-  </si>
-  <si>
-    <t>1 415,00 zł</t>
-  </si>
-  <si>
-    <t>1 641,00 zł</t>
-  </si>
-  <si>
-    <t>Ewa Kowalczyk</t>
-  </si>
-  <si>
-    <t>1 080,00 zł</t>
-  </si>
-  <si>
-    <t>1 350,00 zł</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>504,00 zł</t>
-  </si>
-  <si>
-    <t>600,00 zł</t>
-  </si>
-  <si>
-    <t>Maria Dąbrowska</t>
-  </si>
-  <si>
-    <t>631,00 zł</t>
-  </si>
-  <si>
-    <t>713,00 zł</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>1 211,00 zł</t>
-  </si>
-  <si>
-    <t>1 356,00 zł</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>683,00 zł</t>
-  </si>
-  <si>
-    <t>765,00 zł</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>837,00 zł</t>
-  </si>
-  <si>
-    <t>1 155,00 zł</t>
-  </si>
-  <si>
-    <t>641,00 zł</t>
-  </si>
-  <si>
-    <t>846,00 zł</t>
-  </si>
-  <si>
-    <t>1 368,00 zł</t>
-  </si>
-  <si>
-    <t>1 751,00 zł</t>
+    <t>1 344,00 zł</t>
+  </si>
+  <si>
+    <t>1 178,00 zł</t>
+  </si>
+  <si>
+    <t>1 449,00 zł</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>828,00 zł</t>
+  </si>
+  <si>
+    <t>1 018,00 zł</t>
+  </si>
+  <si>
+    <t>606,00 zł</t>
+  </si>
+  <si>
+    <t>727,00 zł</t>
+  </si>
+  <si>
+    <t>1 438,00 zł</t>
+  </si>
+  <si>
+    <t>1 855,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -1440,10 +1458,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" s="3">
         <v>2</v>
@@ -1470,10 +1488,10 @@
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F18" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G18" s="5"/>
     </row>
@@ -1482,19 +1500,19 @@
         <v>21</v>
       </c>
       <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>4</v>
+      </c>
+      <c r="D19" s="3">
         <v>6</v>
       </c>
-      <c r="C19" s="3">
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
         <v>2</v>
-      </c>
-      <c r="D19" s="3">
-        <v>5</v>
-      </c>
-      <c r="E19" s="3">
-        <v>6</v>
-      </c>
-      <c r="F19" s="3">
-        <v>4</v>
       </c>
       <c r="G19" s="5"/>
     </row>
@@ -1503,19 +1521,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C20" s="3">
         <v>3</v>
       </c>
       <c r="D20" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F20" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="5"/>
     </row>
@@ -1524,19 +1542,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" s="3">
         <v>2</v>
       </c>
       <c r="E21" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F21" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" s="5"/>
     </row>
@@ -1545,19 +1563,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
+        <v>5</v>
+      </c>
+      <c r="C22" s="3">
+        <v>5</v>
+      </c>
+      <c r="D22" s="3">
+        <v>5</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2</v>
+      </c>
+      <c r="F22" s="3">
         <v>6</v>
-      </c>
-      <c r="C22" s="3">
-        <v>2</v>
-      </c>
-      <c r="D22" s="3">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3">
-        <v>4</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
       </c>
       <c r="G22" s="5"/>
     </row>
@@ -1566,19 +1584,19 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C23" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" s="3">
         <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F23" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G23" s="5"/>
     </row>
@@ -1587,19 +1605,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="3">
         <v>5</v>
       </c>
       <c r="D24" s="3">
+        <v>2</v>
+      </c>
+      <c r="E24" s="3">
+        <v>5</v>
+      </c>
+      <c r="F24" s="3">
         <v>6</v>
-      </c>
-      <c r="E24" s="3">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3">
-        <v>3</v>
       </c>
       <c r="G24" s="5"/>
     </row>
@@ -1608,19 +1626,19 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
+        <v>5</v>
+      </c>
+      <c r="C25" s="3">
+        <v>3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3">
         <v>4</v>
       </c>
-      <c r="C25" s="3">
-        <v>2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>3</v>
-      </c>
-      <c r="E25" s="3">
+      <c r="F25" s="3">
         <v>5</v>
-      </c>
-      <c r="F25" s="3">
-        <v>6</v>
       </c>
       <c r="G25" s="5"/>
     </row>
@@ -1629,19 +1647,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
+        <v>5</v>
+      </c>
+      <c r="D26" s="3">
         <v>4</v>
       </c>
-      <c r="D26" s="3">
-        <v>6</v>
-      </c>
       <c r="E26" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26" s="5"/>
     </row>
@@ -1650,19 +1668,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
+        <v>4</v>
+      </c>
+      <c r="C27" s="3">
         <v>2</v>
-      </c>
-      <c r="C27" s="3">
-        <v>5</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
       </c>
       <c r="E27" s="3">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3">
         <v>3</v>
-      </c>
-      <c r="F27" s="3">
-        <v>2</v>
       </c>
       <c r="G27" s="5"/>
     </row>
@@ -1671,19 +1689,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C28" s="3">
+        <v>6</v>
+      </c>
+      <c r="D28" s="3">
+        <v>3</v>
+      </c>
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="D28" s="3">
-        <v>5</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3</v>
-      </c>
       <c r="F28" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" s="5"/>
     </row>
@@ -1805,7 +1823,7 @@
         <v>47</v>
       </c>
       <c r="D13" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -1820,7 +1838,7 @@
         <v>49</v>
       </c>
       <c r="D14" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -1835,7 +1853,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -1850,7 +1868,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="3">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3"/>
     </row>
@@ -1865,7 +1883,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -1880,7 +1898,7 @@
         <v>57</v>
       </c>
       <c r="D18" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E18" s="3"/>
     </row>
@@ -1997,7 +2015,7 @@
         <v>66</v>
       </c>
       <c r="C15" s="3">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D15" s="3"/>
     </row>
@@ -2021,7 +2039,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="3">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -2033,7 +2051,7 @@
         <v>72</v>
       </c>
       <c r="C18" s="3">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -2045,7 +2063,7 @@
         <v>74</v>
       </c>
       <c r="C19" s="3">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D19" s="3"/>
     </row>
@@ -2093,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="C24" s="3">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="D24" s="3"/>
     </row>
@@ -2105,7 +2123,7 @@
         <v>78</v>
       </c>
       <c r="C25" s="3">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D25" s="3"/>
     </row>
@@ -2117,7 +2135,7 @@
         <v>79</v>
       </c>
       <c r="C26" s="3">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="3"/>
     </row>
@@ -2129,7 +2147,7 @@
         <v>80</v>
       </c>
       <c r="C27" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3"/>
     </row>
@@ -2141,7 +2159,7 @@
         <v>81</v>
       </c>
       <c r="C28" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2189,7 +2207,7 @@
         <v>84</v>
       </c>
       <c r="C33" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3"/>
     </row>
@@ -2201,7 +2219,7 @@
         <v>85</v>
       </c>
       <c r="C34" s="3">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3"/>
     </row>
@@ -2213,7 +2231,7 @@
         <v>86</v>
       </c>
       <c r="C35" s="3">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D35" s="3"/>
     </row>
@@ -2225,7 +2243,7 @@
         <v>87</v>
       </c>
       <c r="C36" s="3">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="D36" s="3"/>
     </row>
@@ -2237,7 +2255,7 @@
         <v>88</v>
       </c>
       <c r="C37" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D37" s="3"/>
     </row>
@@ -2386,19 +2404,19 @@
         <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G12" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -2412,25 +2430,25 @@
         <v>109</v>
       </c>
       <c r="D13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F13" s="3">
         <v>6</v>
       </c>
       <c r="G13" s="3">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3">
         <v>3</v>
       </c>
-      <c r="H13" s="3">
+      <c r="I13" s="3">
         <v>5</v>
       </c>
-      <c r="I13" s="3">
-        <v>4</v>
-      </c>
       <c r="J13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
@@ -2444,25 +2462,25 @@
         <v>111</v>
       </c>
       <c r="D14" s="3">
+        <v>6</v>
+      </c>
+      <c r="E14" s="3">
+        <v>6</v>
+      </c>
+      <c r="F14" s="3">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+      <c r="H14" s="3">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2</v>
-      </c>
-      <c r="G14" s="3">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3">
-        <v>5</v>
-      </c>
       <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3">
         <v>6</v>
-      </c>
-      <c r="J14" s="3">
-        <v>5</v>
       </c>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
@@ -2476,25 +2494,25 @@
         <v>113</v>
       </c>
       <c r="D15" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>2</v>
       </c>
       <c r="F15" s="3">
+        <v>6</v>
+      </c>
+      <c r="G15" s="3">
+        <v>6</v>
+      </c>
+      <c r="H15" s="3">
+        <v>6</v>
+      </c>
+      <c r="I15" s="3">
         <v>4</v>
       </c>
-      <c r="G15" s="3">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3">
-        <v>2</v>
-      </c>
-      <c r="I15" s="3">
-        <v>3</v>
-      </c>
       <c r="J15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
@@ -2502,31 +2520,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="3">
+        <v>5</v>
+      </c>
+      <c r="E16" s="3">
         <v>6</v>
-      </c>
-      <c r="E16" s="3">
-        <v>4</v>
       </c>
       <c r="F16" s="3">
         <v>5</v>
       </c>
       <c r="G16" s="3">
+        <v>2</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>6</v>
+      </c>
+      <c r="J16" s="3">
         <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <v>4</v>
-      </c>
-      <c r="I16" s="3">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3">
-        <v>2</v>
       </c>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
@@ -2534,38 +2552,38 @@
     <row r="17" spans="1:12">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
         <v>5</v>
       </c>
       <c r="J17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -2581,7 +2599,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -2627,7 +2645,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2637,221 +2655,221 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -2869,10 +2887,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A44" sqref="A44:B48"/>
+      <selection activeCell="A46" sqref="A46:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2888,7 +2906,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2898,75 +2916,75 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="12" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2974,22 +2992,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2997,22 +3015,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3020,22 +3038,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3043,22 +3061,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3066,22 +3084,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3089,22 +3107,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>222</v>
-      </c>
       <c r="G21" s="3" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3112,22 +3130,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3135,22 +3153,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>231</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3158,22 +3176,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3181,22 +3199,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3204,22 +3222,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3227,22 +3245,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3250,22 +3268,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3273,22 +3291,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3296,22 +3314,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>247</v>
+        <v>204</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3319,22 +3337,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3342,22 +3360,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>265</v>
+        <v>215</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3365,22 +3383,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>265</v>
+        <v>204</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>268</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3388,22 +3406,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>227</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3411,22 +3429,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>208</v>
+        <v>277</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3434,22 +3452,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>274</v>
+        <v>227</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3457,22 +3475,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3480,22 +3498,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>281</v>
+        <v>212</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>283</v>
+        <v>219</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3503,22 +3521,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3526,67 +3544,113 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="3">
+        <v>26</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="3">
+        <v>27</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G42" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>288</v>
-      </c>
-      <c r="B44" s="14" t="s">
-        <v>174</v>
-      </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>289</v>
-      </c>
-      <c r="B45" s="14" t="s">
-        <v>174</v>
+      <c r="A45" s="13" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>174</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>297</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>298</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_006.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_006.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
   <si>
     <t>ZESTAW ZADAŃ NR 6 - CZĘŚĆ 1</t>
   </si>
@@ -118,21 +118,6 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(B17:B28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(C17:C28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(D17:D28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(E17:E28);".";",")</t>
-  </si>
-  <si>
-    <t>=ZASTĄP.TEKST(ŚREDNIA(F17:F28);".";",")</t>
-  </si>
-  <si>
     <t>ZESTAW ZADAŃ NR 6 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -163,39 +148,21 @@
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>1,50</t>
-  </si>
-  <si>
     <t>Gumka do mazania</t>
   </si>
   <si>
-    <t>0,60</t>
-  </si>
-  <si>
     <t>Temperówka</t>
   </si>
   <si>
-    <t>1,60</t>
-  </si>
-  <si>
     <t>Blok rysunkowy A4</t>
   </si>
   <si>
-    <t>4,70</t>
-  </si>
-  <si>
     <t>Linijka 30 cm</t>
   </si>
   <si>
-    <t>2,20</t>
-  </si>
-  <si>
     <t>Zeszyt 60 kartek</t>
   </si>
   <si>
-    <t>4,30</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -220,75 +187,30 @@
     <t>Zeszyt</t>
   </si>
   <si>
-    <t>12,13</t>
-  </si>
-  <si>
     <t>Ołówek</t>
   </si>
   <si>
-    <t>19,40</t>
-  </si>
-  <si>
     <t>Długopis</t>
   </si>
   <si>
-    <t>19,82</t>
-  </si>
-  <si>
     <t>Linijka</t>
   </si>
   <si>
-    <t>13,63</t>
-  </si>
-  <si>
     <t>Gumka</t>
   </si>
   <si>
-    <t>1,14</t>
-  </si>
-  <si>
     <t>Razem Styczeń:</t>
   </si>
   <si>
     <t>Luty:</t>
   </si>
   <si>
-    <t>7,38</t>
-  </si>
-  <si>
-    <t>4,50</t>
-  </si>
-  <si>
-    <t>30,04</t>
-  </si>
-  <si>
-    <t>7,22</t>
-  </si>
-  <si>
-    <t>5,23</t>
-  </si>
-  <si>
     <t>Razem Luty:</t>
   </si>
   <si>
     <t>Marzec:</t>
   </si>
   <si>
-    <t>12,46</t>
-  </si>
-  <si>
-    <t>12,66</t>
-  </si>
-  <si>
-    <t>18,77</t>
-  </si>
-  <si>
-    <t>30,31</t>
-  </si>
-  <si>
-    <t>6,63</t>
-  </si>
-  <si>
     <t>Razem Marzec:</t>
   </si>
   <si>
@@ -307,7 +229,7 @@
     <t>2. Uzupełnij kolumnę LP (kolejne numery).</t>
   </si>
   <si>
-    <t>3. Oblicz średnią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
+    <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
     <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
@@ -415,126 +337,84 @@
     <t>12.03.1998</t>
   </si>
   <si>
-    <t>8 953,00 zł</t>
-  </si>
-  <si>
     <t>Antoni Woźniak</t>
   </si>
   <si>
     <t>03.04.1987</t>
   </si>
   <si>
-    <t>14 829,00 zł</t>
-  </si>
-  <si>
     <t>Anna Czarnecka</t>
   </si>
   <si>
     <t>21.05.1987</t>
   </si>
   <si>
-    <t>7 352,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Czarnecka</t>
   </si>
   <si>
     <t>28.08.1992</t>
   </si>
   <si>
-    <t>5 476,00 zł</t>
-  </si>
-  <si>
     <t>Mikołaj Grabowski</t>
   </si>
   <si>
     <t>18.04.1990</t>
   </si>
   <si>
-    <t>10 798,00 zł</t>
-  </si>
-  <si>
     <t>Kacper Grabowski</t>
   </si>
   <si>
     <t>25.05.1994</t>
   </si>
   <si>
-    <t>13 554,00 zł</t>
-  </si>
-  <si>
     <t>Julia Kaźmierczak</t>
   </si>
   <si>
     <t>21.01.1979</t>
   </si>
   <si>
-    <t>14 152,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Mazur</t>
   </si>
   <si>
     <t>08.06.1978</t>
   </si>
   <si>
-    <t>12 441,00 zł</t>
-  </si>
-  <si>
     <t>Oliwia Maciejewska</t>
   </si>
   <si>
     <t>19.12.1982</t>
   </si>
   <si>
-    <t>13 376,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Jaworska</t>
   </si>
   <si>
     <t>19.10.1991</t>
   </si>
   <si>
-    <t>14 215,00 zł</t>
-  </si>
-  <si>
     <t>Julia Jaworska</t>
   </si>
   <si>
     <t>22.01.1978</t>
   </si>
   <si>
-    <t>8 603,00 zł</t>
-  </si>
-  <si>
     <t>Zuzanna Malinowska</t>
   </si>
   <si>
     <t>02.05.1987</t>
   </si>
   <si>
-    <t>2 636,00 zł</t>
-  </si>
-  <si>
     <t>Wojciech Kwiatkowski</t>
   </si>
   <si>
     <t>08.02.2003</t>
   </si>
   <si>
-    <t>4 197,00 zł</t>
-  </si>
-  <si>
     <t>Jan Dąbrowski</t>
   </si>
   <si>
     <t>27.06.1993</t>
   </si>
   <si>
-    <t>9 473,00 zł</t>
-  </si>
-  <si>
     <t>OBLICZENIA:</t>
   </si>
   <si>
@@ -547,9 +427,6 @@
     <t>Najmniejsze zarobki:</t>
   </si>
   <si>
-    <t>=...</t>
-  </si>
-  <si>
     <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
@@ -610,12 +487,6 @@
     <t>Projektor multimedialny</t>
   </si>
   <si>
-    <t>1 363,00 zł</t>
-  </si>
-  <si>
-    <t>1 567,00 zł</t>
-  </si>
-  <si>
     <t>Paweł Kwiatkowski</t>
   </si>
   <si>
@@ -628,12 +499,6 @@
     <t>Konsola do gier</t>
   </si>
   <si>
-    <t>1 057,00 zł</t>
-  </si>
-  <si>
-    <t>1 173,00 zł</t>
-  </si>
-  <si>
     <t>Katarzyna Mazur</t>
   </si>
   <si>
@@ -646,12 +511,6 @@
     <t>Zasilacz 650W</t>
   </si>
   <si>
-    <t>1 099,00 zł</t>
-  </si>
-  <si>
-    <t>1 352,00 zł</t>
-  </si>
-  <si>
     <t>świętokrzyskie</t>
   </si>
   <si>
@@ -661,12 +520,6 @@
     <t>Mysz gamingowa</t>
   </si>
   <si>
-    <t>1 101,00 zł</t>
-  </si>
-  <si>
-    <t>1 475,00 zł</t>
-  </si>
-  <si>
     <t>Michał Jankowski</t>
   </si>
   <si>
@@ -676,12 +529,6 @@
     <t>Smart TV 55"</t>
   </si>
   <si>
-    <t>1 118,00 zł</t>
-  </si>
-  <si>
-    <t>1 532,00 zł</t>
-  </si>
-  <si>
     <t>Marcin Zieliński</t>
   </si>
   <si>
@@ -691,12 +538,6 @@
     <t>Smartphone 5G 128GB</t>
   </si>
   <si>
-    <t>1 372,00 zł</t>
-  </si>
-  <si>
-    <t>1 825,00 zł</t>
-  </si>
-  <si>
     <t>lubuskie</t>
   </si>
   <si>
@@ -706,12 +547,6 @@
     <t>Słuchawki bezprzewodowe</t>
   </si>
   <si>
-    <t>1 395,00 zł</t>
-  </si>
-  <si>
-    <t>1 758,00 zł</t>
-  </si>
-  <si>
     <t>Tomasz Kamiński</t>
   </si>
   <si>
@@ -721,24 +556,12 @@
     <t>Router Wi-Fi 6</t>
   </si>
   <si>
-    <t>1 329,00 zł</t>
-  </si>
-  <si>
-    <t>1 515,00 zł</t>
-  </si>
-  <si>
     <t>Anna Nowak</t>
   </si>
   <si>
     <t>Monitor 24" 4K</t>
   </si>
   <si>
-    <t>899,00 zł</t>
-  </si>
-  <si>
-    <t>1 259,00 zł</t>
-  </si>
-  <si>
     <t>śląskie</t>
   </si>
   <si>
@@ -748,36 +571,18 @@
     <t>Odtwarzacz DVD</t>
   </si>
   <si>
-    <t>1 435,00 zł</t>
-  </si>
-  <si>
-    <t>1 765,00 zł</t>
-  </si>
-  <si>
     <t>Jan Kowalski</t>
   </si>
   <si>
     <t>Dysk SSD 1TB</t>
   </si>
   <si>
-    <t>1 155,00 zł</t>
-  </si>
-  <si>
-    <t>1 467,00 zł</t>
-  </si>
-  <si>
     <t>pomorskie</t>
   </si>
   <si>
     <t>Procesor i5</t>
   </si>
   <si>
-    <t>715,00 zł</t>
-  </si>
-  <si>
-    <t>987,00 zł</t>
-  </si>
-  <si>
     <t>Andrzej Woźniak</t>
   </si>
   <si>
@@ -787,121 +592,34 @@
     <t>Obudowa gamingowa</t>
   </si>
   <si>
-    <t>1 334,00 zł</t>
-  </si>
-  <si>
-    <t>1 561,00 zł</t>
-  </si>
-  <si>
     <t>kujawsko-pomorskie</t>
   </si>
   <si>
-    <t>1 471,00 zł</t>
-  </si>
-  <si>
-    <t>1 677,00 zł</t>
-  </si>
-  <si>
     <t>Magdalena Szymańska</t>
   </si>
   <si>
-    <t>1 232,00 zł</t>
-  </si>
-  <si>
-    <t>1 355,00 zł</t>
-  </si>
-  <si>
     <t>Klawiatura mechaniczna</t>
   </si>
   <si>
-    <t>712,00 zł</t>
-  </si>
-  <si>
-    <t>997,00 zł</t>
-  </si>
-  <si>
     <t>Monika Krawczyk</t>
   </si>
   <si>
-    <t>1 208,00 zł</t>
-  </si>
-  <si>
-    <t>1 401,00 zł</t>
-  </si>
-  <si>
-    <t>1 396,00 zł</t>
-  </si>
-  <si>
-    <t>1 564,00 zł</t>
-  </si>
-  <si>
     <t>Głośnik Bluetooth</t>
   </si>
   <si>
-    <t>724,00 zł</t>
-  </si>
-  <si>
-    <t>854,00 zł</t>
-  </si>
-  <si>
     <t>małopolskie</t>
   </si>
   <si>
-    <t>1 235,00 zł</t>
-  </si>
-  <si>
-    <t>1 544,00 zł</t>
-  </si>
-  <si>
     <t>Barbara Kozłowska</t>
   </si>
   <si>
-    <t>1 061,00 zł</t>
-  </si>
-  <si>
-    <t>1 316,00 zł</t>
-  </si>
-  <si>
-    <t>1 408,00 zł</t>
-  </si>
-  <si>
-    <t>1 788,00 zł</t>
-  </si>
-  <si>
     <t>Agnieszka Wojciechowska</t>
   </si>
   <si>
     <t>podkarpackie</t>
   </si>
   <si>
-    <t>1 344,00 zł</t>
-  </si>
-  <si>
-    <t>1 178,00 zł</t>
-  </si>
-  <si>
-    <t>1 449,00 zł</t>
-  </si>
-  <si>
     <t>wielkopolskie</t>
-  </si>
-  <si>
-    <t>828,00 zł</t>
-  </si>
-  <si>
-    <t>1 018,00 zł</t>
-  </si>
-  <si>
-    <t>606,00 zł</t>
-  </si>
-  <si>
-    <t>727,00 zł</t>
-  </si>
-  <si>
-    <t>1 438,00 zł</t>
-  </si>
-  <si>
-    <t>1 855,00 zł</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -923,7 +641,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00&quot; zł&quot;"/>
+  </numFmts>
   <fonts count="5">
     <font>
       <b val="0"/>
@@ -980,14 +700,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFD9EAD3"/>
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
     <fill>
@@ -998,8 +718,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -1030,30 +750,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="0" quotePrefix="1" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1356,7 +1077,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="A16" sqref="A16:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1431,25 +1152,25 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G16" s="4" t="s">
+      <c r="G16" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1472,7 +1193,7 @@
       <c r="F17" s="3">
         <v>3</v>
       </c>
-      <c r="G17" s="5"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
@@ -1493,7 +1214,7 @@
       <c r="F18" s="3">
         <v>6</v>
       </c>
-      <c r="G18" s="5"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
@@ -1514,7 +1235,7 @@
       <c r="F19" s="3">
         <v>2</v>
       </c>
-      <c r="G19" s="5"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3" t="s">
@@ -1535,7 +1256,7 @@
       <c r="F20" s="3">
         <v>3</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3" t="s">
@@ -1556,7 +1277,7 @@
       <c r="F21" s="3">
         <v>2</v>
       </c>
-      <c r="G21" s="5"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3" t="s">
@@ -1577,7 +1298,7 @@
       <c r="F22" s="3">
         <v>6</v>
       </c>
-      <c r="G22" s="5"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3" t="s">
@@ -1598,7 +1319,7 @@
       <c r="F23" s="3">
         <v>2</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3" t="s">
@@ -1619,7 +1340,7 @@
       <c r="F24" s="3">
         <v>6</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
@@ -1640,7 +1361,7 @@
       <c r="F25" s="3">
         <v>5</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3" t="s">
@@ -1661,7 +1382,7 @@
       <c r="F26" s="3">
         <v>2</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3" t="s">
@@ -1682,7 +1403,7 @@
       <c r="F27" s="3">
         <v>3</v>
       </c>
-      <c r="G27" s="5"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3" t="s">
@@ -1703,27 +1424,17 @@
       <c r="F28" s="3">
         <v>6</v>
       </c>
-      <c r="G28" s="5"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>36</v>
-      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1757,7 +1468,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1777,7 +1488,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1787,29 +1498,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1817,99 +1528,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
+      </c>
+      <c r="C13" s="7">
+        <v>1.5</v>
       </c>
       <c r="D13" s="3">
         <v>8</v>
       </c>
-      <c r="E13" s="3"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>49</v>
+        <v>42</v>
+      </c>
+      <c r="C14" s="7">
+        <v>0.6</v>
       </c>
       <c r="D14" s="3">
         <v>5</v>
       </c>
-      <c r="E14" s="3"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>51</v>
+        <v>43</v>
+      </c>
+      <c r="C15" s="7">
+        <v>1.6</v>
       </c>
       <c r="D15" s="3">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="C16" s="7">
+        <v>4.7</v>
       </c>
       <c r="D16" s="3">
         <v>6</v>
       </c>
-      <c r="E16" s="3"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>55</v>
+        <v>45</v>
+      </c>
+      <c r="C17" s="7">
+        <v>2.2</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
       </c>
-      <c r="E17" s="3"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
+      </c>
+      <c r="C18" s="7">
+        <v>4.3</v>
       </c>
       <c r="D18" s="3">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="E19" s="8"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1942,7 +1653,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1967,113 +1678,113 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="8" t="s">
-        <v>64</v>
+      <c r="A13" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
+      <c r="A14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>66</v>
+        <v>54</v>
+      </c>
+      <c r="B15" s="7">
+        <v>12.13</v>
       </c>
       <c r="C15" s="3">
         <v>12</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>68</v>
+        <v>55</v>
+      </c>
+      <c r="B16" s="7">
+        <v>19.4</v>
       </c>
       <c r="C16" s="3">
         <v>11</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>70</v>
+        <v>56</v>
+      </c>
+      <c r="B17" s="7">
+        <v>19.82</v>
       </c>
       <c r="C17" s="3">
         <v>40</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>57</v>
+      </c>
+      <c r="B18" s="7">
+        <v>13.63</v>
       </c>
       <c r="C18" s="3">
         <v>43</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
+      </c>
+      <c r="B19" s="7">
+        <v>1.14</v>
       </c>
       <c r="C19" s="3">
         <v>35</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8"/>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -2082,94 +1793,94 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="8" t="s">
-        <v>76</v>
+      <c r="A22" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>45</v>
+      <c r="A23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="B24" s="7">
+        <v>7.38</v>
       </c>
       <c r="C24" s="3">
         <v>21</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4.5</v>
       </c>
       <c r="C25" s="3">
         <v>33</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>79</v>
+        <v>56</v>
+      </c>
+      <c r="B26" s="7">
+        <v>30.039999999999999</v>
       </c>
       <c r="C26" s="3">
         <v>38</v>
       </c>
-      <c r="D26" s="3"/>
+      <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>80</v>
+        <v>57</v>
+      </c>
+      <c r="B27" s="7">
+        <v>7.22</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>81</v>
+        <v>58</v>
+      </c>
+      <c r="B28" s="7">
+        <v>5.23</v>
       </c>
       <c r="C28" s="3">
         <v>32</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="14"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -2178,98 +1889,98 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="8" t="s">
-        <v>83</v>
+      <c r="A31" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>45</v>
+      <c r="A32" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>84</v>
+        <v>54</v>
+      </c>
+      <c r="B33" s="7">
+        <v>12.46</v>
       </c>
       <c r="C33" s="3">
         <v>10</v>
       </c>
-      <c r="D33" s="3"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>85</v>
+        <v>55</v>
+      </c>
+      <c r="B34" s="7">
+        <v>12.66</v>
       </c>
       <c r="C34" s="3">
         <v>10</v>
       </c>
-      <c r="D34" s="3"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>86</v>
+        <v>56</v>
+      </c>
+      <c r="B35" s="7">
+        <v>18.77</v>
       </c>
       <c r="C35" s="3">
         <v>38</v>
       </c>
-      <c r="D35" s="3"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>57</v>
+      </c>
+      <c r="B36" s="7">
+        <v>30.31</v>
       </c>
       <c r="C36" s="3">
         <v>33</v>
       </c>
-      <c r="D36" s="3"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>88</v>
+        <v>58</v>
+      </c>
+      <c r="B37" s="7">
+        <v>6.63</v>
       </c>
       <c r="C37" s="3">
         <v>14</v>
       </c>
-      <c r="D37" s="3"/>
+      <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="6"/>
+      <c r="C38" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="11"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" s="7"/>
+      <c r="C40" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2292,7 +2003,7 @@
   <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A19" sqref="A19:L19"/>
+      <selection activeCell="A11" sqref="A11:L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2312,90 +2023,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="9" t="s">
-        <v>91</v>
+      <c r="A1" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>105</v>
+      <c r="J11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D12" s="3">
         <v>2</v>
@@ -2418,16 +2129,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
     </row>
     <row r="13" spans="1:12">
-      <c r="A13" s="3"/>
+      <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="D13" s="3">
         <v>6</v>
@@ -2450,16 +2161,16 @@
       <c r="J13" s="3">
         <v>2</v>
       </c>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="3"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3">
         <v>6</v>
@@ -2482,16 +2193,16 @@
       <c r="J14" s="3">
         <v>6</v>
       </c>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="3"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -2514,16 +2225,16 @@
       <c r="J15" s="3">
         <v>5</v>
       </c>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="3"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3">
         <v>5</v>
@@ -2546,16 +2257,16 @@
       <c r="J16" s="3">
         <v>5</v>
       </c>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="3"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="D17" s="3">
         <v>4</v>
@@ -2578,40 +2289,40 @@
       <c r="J17" s="3">
         <v>4</v>
       </c>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
+      <c r="A18" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
+      <c r="A19" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2644,233 +2355,227 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="9" t="s">
-        <v>120</v>
+      <c r="A1" s="15" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>128</v>
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>131</v>
+        <v>104</v>
+      </c>
+      <c r="C11" s="7">
+        <v>8953</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>134</v>
+        <v>106</v>
+      </c>
+      <c r="C12" s="7">
+        <v>14829</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>137</v>
+        <v>108</v>
+      </c>
+      <c r="C13" s="7">
+        <v>7352</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>140</v>
+        <v>110</v>
+      </c>
+      <c r="C14" s="7">
+        <v>5476</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>143</v>
+        <v>112</v>
+      </c>
+      <c r="C15" s="7">
+        <v>10798</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>146</v>
+        <v>114</v>
+      </c>
+      <c r="C16" s="7">
+        <v>13554</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>149</v>
+        <v>116</v>
+      </c>
+      <c r="C17" s="7">
+        <v>14152</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>152</v>
+        <v>118</v>
+      </c>
+      <c r="C18" s="7">
+        <v>12441</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>153</v>
+        <v>119</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>155</v>
+        <v>120</v>
+      </c>
+      <c r="C19" s="7">
+        <v>13376</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>158</v>
+        <v>122</v>
+      </c>
+      <c r="C20" s="7">
+        <v>14215</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>161</v>
+        <v>124</v>
+      </c>
+      <c r="C21" s="7">
+        <v>8603</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>162</v>
+        <v>125</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>164</v>
+        <v>126</v>
+      </c>
+      <c r="C22" s="7">
+        <v>2636</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>167</v>
+        <v>128</v>
+      </c>
+      <c r="C23" s="7">
+        <v>4197</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>170</v>
+        <v>130</v>
+      </c>
+      <c r="C24" s="7">
+        <v>9473</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="13" t="s">
-        <v>171</v>
+      <c r="A27" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>172</v>
-      </c>
-      <c r="B28" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>173</v>
-      </c>
-      <c r="B29" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>174</v>
-      </c>
-      <c r="B30" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B30" s="6"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2905,86 +2610,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="9" t="s">
-        <v>176</v>
+      <c r="A1" s="15" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>188</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>190</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>193</v>
+      <c r="A15" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2992,22 +2697,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>197</v>
+        <v>154</v>
+      </c>
+      <c r="D16" s="7">
+        <v>1363</v>
+      </c>
+      <c r="E16" s="7">
+        <v>1567</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>199</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -3015,22 +2720,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>203</v>
+        <v>158</v>
+      </c>
+      <c r="D17" s="7">
+        <v>1057</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1173</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -3038,22 +2743,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>209</v>
+        <v>162</v>
+      </c>
+      <c r="D18" s="7">
+        <v>1099</v>
+      </c>
+      <c r="E18" s="7">
+        <v>1352</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -3061,22 +2766,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>214</v>
+        <v>165</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1101</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1475</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -3084,22 +2789,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>219</v>
+        <v>168</v>
+      </c>
+      <c r="D20" s="7">
+        <v>1118</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1532</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -3107,22 +2812,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>224</v>
+        <v>171</v>
+      </c>
+      <c r="D21" s="7">
+        <v>1372</v>
+      </c>
+      <c r="E21" s="7">
+        <v>1825</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -3130,22 +2835,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>229</v>
+        <v>174</v>
+      </c>
+      <c r="D22" s="7">
+        <v>1395</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1758</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -3153,22 +2858,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>234</v>
+        <v>177</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1329</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1515</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -3176,22 +2881,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>236</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>238</v>
+        <v>179</v>
+      </c>
+      <c r="D24" s="7">
+        <v>899</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1259</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>220</v>
+        <v>169</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -3199,22 +2904,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>243</v>
+        <v>182</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1435</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1765</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -3222,22 +2927,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>247</v>
+        <v>184</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1155</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1467</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -3245,22 +2950,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>251</v>
+        <v>186</v>
+      </c>
+      <c r="D27" s="7">
+        <v>715</v>
+      </c>
+      <c r="E27" s="7">
+        <v>987</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>253</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -3268,22 +2973,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>256</v>
+        <v>189</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1334</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1561</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -3291,22 +2996,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>259</v>
+        <v>189</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1471</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1677</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>260</v>
+        <v>191</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3314,22 +3019,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>262</v>
+        <v>184</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1232</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1355</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>231</v>
+        <v>176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3337,22 +3042,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>200</v>
+        <v>157</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>265</v>
+        <v>192</v>
+      </c>
+      <c r="D31" s="7">
+        <v>712</v>
+      </c>
+      <c r="E31" s="7">
+        <v>997</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>248</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3360,22 +3065,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>268</v>
+        <v>186</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1208</v>
+      </c>
+      <c r="E32" s="7">
+        <v>1401</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>225</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3383,22 +3088,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>270</v>
+        <v>174</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1396</v>
+      </c>
+      <c r="E33" s="7">
+        <v>1564</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>204</v>
+        <v>159</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3406,22 +3111,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>273</v>
+        <v>194</v>
+      </c>
+      <c r="D34" s="7">
+        <v>724</v>
+      </c>
+      <c r="E34" s="7">
+        <v>854</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3429,22 +3134,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>276</v>
+        <v>165</v>
+      </c>
+      <c r="D35" s="7">
+        <v>1235</v>
+      </c>
+      <c r="E35" s="7">
+        <v>1544</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>277</v>
+        <v>196</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>274</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3452,22 +3157,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>279</v>
+        <v>174</v>
+      </c>
+      <c r="D36" s="7">
+        <v>1061</v>
+      </c>
+      <c r="E36" s="7">
+        <v>1316</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3475,22 +3180,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>281</v>
+        <v>194</v>
+      </c>
+      <c r="D37" s="7">
+        <v>1408</v>
+      </c>
+      <c r="E37" s="7">
+        <v>1788</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>283</v>
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3498,22 +3203,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>226</v>
+        <v>173</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>219</v>
+        <v>165</v>
+      </c>
+      <c r="D38" s="7">
+        <v>1344</v>
+      </c>
+      <c r="E38" s="7">
+        <v>1532</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>252</v>
+        <v>187</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3521,22 +3226,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="E39" s="3" t="s">
-        <v>286</v>
+        <v>154</v>
+      </c>
+      <c r="D39" s="7">
+        <v>1178</v>
+      </c>
+      <c r="E39" s="7">
+        <v>1449</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3544,22 +3249,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>211</v>
+        <v>164</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E40" s="3" t="s">
-        <v>289</v>
+        <v>186</v>
+      </c>
+      <c r="D40" s="7">
+        <v>828</v>
+      </c>
+      <c r="E40" s="7">
+        <v>1018</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3567,22 +3272,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>206</v>
+        <v>161</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>291</v>
+        <v>184</v>
+      </c>
+      <c r="D41" s="7">
+        <v>606</v>
+      </c>
+      <c r="E41" s="7">
+        <v>727</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>230</v>
+        <v>175</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3590,68 +3295,58 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>293</v>
+        <v>165</v>
+      </c>
+      <c r="D42" s="7">
+        <v>1438</v>
+      </c>
+      <c r="E42" s="7">
+        <v>1855</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>205</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="13" t="s">
-        <v>171</v>
+      <c r="A45" s="17" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" t="s">
-        <v>294</v>
-      </c>
-      <c r="B46" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B46" s="6"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" t="s">
-        <v>295</v>
-      </c>
-      <c r="B47" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="B47" s="6"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B48" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B48" s="6"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>297</v>
-      </c>
-      <c r="B49" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B49" s="6"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B50" s="14" t="s">
-        <v>175</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B50" s="6"/>
     </row>
   </sheetData>
   <mergeCells>

--- a/excel/collective/zestawy_dla_uczniow/zestaw_006.xlsx
+++ b/excel/collective/zestawy_dla_uczniow/zestaw_006.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Zadanie 3 - Sprzedaż" sheetId="3" r:id="rId6"/>
     <sheet name="Zadanie 4 - Średnie klasy" sheetId="4" r:id="rId7"/>
     <sheet name="Zadanie 5 - Dane osobowe" sheetId="5" r:id="rId8"/>
-    <sheet name="Zadanie 6 - Analiza" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 6 - Godziny pracy" sheetId="6" r:id="rId9"/>
+    <sheet name="Zadanie 7 - Analiza" sheetId="7" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>ZESTAW ZADAŃ NR 6 - CZĘŚĆ 1</t>
   </si>
@@ -61,19 +62,19 @@
     <t>Przedmiot</t>
   </si>
   <si>
-    <t>Zuzanna Borkowska</t>
-  </si>
-  <si>
-    <t>Maja Wójcik</t>
-  </si>
-  <si>
-    <t>Lena Wilk</t>
-  </si>
-  <si>
-    <t>Hanna Kaźmierczak</t>
-  </si>
-  <si>
-    <t>Oliwia Kaźmierczak</t>
+    <t>Maja Sikorska</t>
+  </si>
+  <si>
+    <t>Maja Wilk</t>
+  </si>
+  <si>
+    <t>Amelia Borkowska</t>
+  </si>
+  <si>
+    <t>Julia Sikorska</t>
+  </si>
+  <si>
+    <t>Anna Jaworska</t>
   </si>
   <si>
     <t>ŚREDNIA</t>
@@ -118,6 +119,9 @@
     <t>ŚREDNIA UCZNIA:</t>
   </si>
   <si>
+    <t>ŚREDNIA KLASY:</t>
+  </si>
+  <si>
     <t>ZESTAW ZADAŃ NR 6 - CZĘŚĆ 2: ZAKUPY</t>
   </si>
   <si>
@@ -145,24 +149,24 @@
     <t>Razem (zł)</t>
   </si>
   <si>
+    <t>Gumka do mazania</t>
+  </si>
+  <si>
+    <t>Blok rysunkowy A4</t>
+  </si>
+  <si>
+    <t>Długopis niebieski</t>
+  </si>
+  <si>
+    <t>Zeszyt 60 kartek</t>
+  </si>
+  <si>
+    <t>Temperówka</t>
+  </si>
+  <si>
     <t>Ołówek HB</t>
   </si>
   <si>
-    <t>Gumka do mazania</t>
-  </si>
-  <si>
-    <t>Temperówka</t>
-  </si>
-  <si>
-    <t>Blok rysunkowy A4</t>
-  </si>
-  <si>
-    <t>Linijka 30 cm</t>
-  </si>
-  <si>
-    <t>Zeszyt 60 kartek</t>
-  </si>
-  <si>
     <t>SUMA:</t>
   </si>
   <si>
@@ -217,6 +221,9 @@
     <t>SUMA z 3 miesięcy:</t>
   </si>
   <si>
+    <t>Średnia z 3 miesięcy:</t>
+  </si>
+  <si>
     <t>ZADANIE 4: ŚREDNIE KLASY</t>
   </si>
   <si>
@@ -232,7 +239,7 @@
     <t>3. Oblicz średią ocen dla każdego ucznia i wpisz w kolumnie "Średnia ucznia".</t>
   </si>
   <si>
-    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,5, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
+    <t>4. Jeżeli średnia ucznia jest większa lub równa 4,75, wpisz "TAK", w przeciwnym razie "NIE" w kolumnie "Czy pasek?".</t>
   </si>
   <si>
     <t>5. Oblicz średnią ocen dla każdego przedmiotu i wpisz w wierszu "Średnia przedmiotu:".</t>
@@ -259,43 +266,55 @@
     <t>Średnia ucznia</t>
   </si>
   <si>
-    <t>Czy pasek?</t>
+    <t>Czy śrecnia powyżej 4,75?</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Kozłowski</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Bednarska</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>Urbaniak</t>
+  </si>
+  <si>
+    <t>Jakub</t>
+  </si>
+  <si>
+    <t>Nowak</t>
+  </si>
+  <si>
+    <t>Amelia</t>
+  </si>
+  <si>
+    <t>Król</t>
+  </si>
+  <si>
+    <t>Hanna</t>
+  </si>
+  <si>
+    <t>Sikorska</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>Lewandowski</t>
   </si>
   <si>
     <t>Zuzanna</t>
   </si>
   <si>
-    <t>Bednarska</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Piekarska</t>
-  </si>
-  <si>
-    <t>Maja</t>
-  </si>
-  <si>
-    <t>Olszewska</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>Nowak</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Górska</t>
-  </si>
-  <si>
-    <t>Anna</t>
-  </si>
-  <si>
-    <t>Czarnecka</t>
+    <t>Rogalska</t>
   </si>
   <si>
     <t>Średnia przedmiotu:</t>
@@ -331,103 +350,130 @@
     <t>Zarobki (zł)</t>
   </si>
   <si>
-    <t>Aleksander Piotrowski</t>
-  </si>
-  <si>
-    <t>12.03.1998</t>
-  </si>
-  <si>
-    <t>Antoni Woźniak</t>
-  </si>
-  <si>
-    <t>03.04.1987</t>
-  </si>
-  <si>
-    <t>Anna Czarnecka</t>
-  </si>
-  <si>
-    <t>21.05.1987</t>
-  </si>
-  <si>
-    <t>Zuzanna Czarnecka</t>
-  </si>
-  <si>
-    <t>28.08.1992</t>
-  </si>
-  <si>
-    <t>Mikołaj Grabowski</t>
-  </si>
-  <si>
-    <t>18.04.1990</t>
-  </si>
-  <si>
-    <t>Kacper Grabowski</t>
-  </si>
-  <si>
-    <t>25.05.1994</t>
-  </si>
-  <si>
-    <t>Julia Kaźmierczak</t>
-  </si>
-  <si>
-    <t>21.01.1979</t>
-  </si>
-  <si>
-    <t>Wojciech Mazur</t>
-  </si>
-  <si>
-    <t>08.06.1978</t>
-  </si>
-  <si>
-    <t>Oliwia Maciejewska</t>
-  </si>
-  <si>
-    <t>19.12.1982</t>
+    <t>Amelia Lis</t>
+  </si>
+  <si>
+    <t>Hanna Sadowska</t>
+  </si>
+  <si>
+    <t>Zuzanna Wilk</t>
+  </si>
+  <si>
+    <t>Lena Czarnecka</t>
+  </si>
+  <si>
+    <t>Anna Kubiak</t>
+  </si>
+  <si>
+    <t>Maja Król</t>
+  </si>
+  <si>
+    <t>Filip Kowalski</t>
+  </si>
+  <si>
+    <t>Emilia Borkowska</t>
+  </si>
+  <si>
+    <t>Emilia Piekarska</t>
+  </si>
+  <si>
+    <t>Emilia Król</t>
+  </si>
+  <si>
+    <t>Natalia Czarnecka</t>
+  </si>
+  <si>
+    <t>Kacper Nowak</t>
+  </si>
+  <si>
+    <t>Adam Nowak</t>
+  </si>
+  <si>
+    <t>Amelia Górska</t>
+  </si>
+  <si>
+    <t>Aleksander Woźniak</t>
+  </si>
+  <si>
+    <t>Lena Rogalska</t>
+  </si>
+  <si>
+    <t>OBLICZENIA:</t>
+  </si>
+  <si>
+    <t>Liczba osób urodzonych w 1998 roku:</t>
+  </si>
+  <si>
+    <t>Największe zarobki:</t>
+  </si>
+  <si>
+    <t>Najmniejsze zarobki:</t>
+  </si>
+  <si>
+    <t>ZADANIE 6 - DANE OSOBOWE I ILOŚĆ GODZIN PRACY</t>
+  </si>
+  <si>
+    <t>1. Oblicz ilość przepracowanych godzin dla każdej osoby</t>
+  </si>
+  <si>
+    <t>2. Podaj zarobki dla każdej osoby (stawka godzinowa × ilość przepracowanych godzin)</t>
+  </si>
+  <si>
+    <t>Stawka godzinowa (zł/h):</t>
+  </si>
+  <si>
+    <t>Ilość przepracowanych godzin</t>
+  </si>
+  <si>
+    <t>Oliwia Górska</t>
+  </si>
+  <si>
+    <t>Jan Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Szymon Kwiatkowski</t>
+  </si>
+  <si>
+    <t>Emilia Górska</t>
+  </si>
+  <si>
+    <t>Maja Rogalska</t>
+  </si>
+  <si>
+    <t>Filip Grabowski</t>
+  </si>
+  <si>
+    <t>Kacper Wójcik</t>
+  </si>
+  <si>
+    <t>Jan Woźniak</t>
+  </si>
+  <si>
+    <t>Hanna Sikorska</t>
+  </si>
+  <si>
+    <t>Aleksander Dąbrowski</t>
+  </si>
+  <si>
+    <t>Natalia Maciejewska</t>
   </si>
   <si>
     <t>Zuzanna Jaworska</t>
   </si>
   <si>
-    <t>19.10.1991</t>
-  </si>
-  <si>
-    <t>Julia Jaworska</t>
-  </si>
-  <si>
-    <t>22.01.1978</t>
-  </si>
-  <si>
-    <t>Zuzanna Malinowska</t>
-  </si>
-  <si>
-    <t>02.05.1987</t>
-  </si>
-  <si>
-    <t>Wojciech Kwiatkowski</t>
-  </si>
-  <si>
-    <t>08.02.2003</t>
-  </si>
-  <si>
-    <t>Jan Dąbrowski</t>
-  </si>
-  <si>
-    <t>27.06.1993</t>
-  </si>
-  <si>
-    <t>OBLICZENIA:</t>
-  </si>
-  <si>
-    <t>Liczba osób urodzonych w 1998 roku:</t>
-  </si>
-  <si>
-    <t>Największe zarobki:</t>
-  </si>
-  <si>
-    <t>Najmniejsze zarobki:</t>
-  </si>
-  <si>
-    <t>ZADANIE 6 - ANALIZA SPRZEDAŻY</t>
+    <t>Filip Szymański</t>
+  </si>
+  <si>
+    <t>Antoni Wojciechowski</t>
+  </si>
+  <si>
+    <t>Kacper Szymański</t>
+  </si>
+  <si>
+    <t>Amelia Zawadzka</t>
+  </si>
+  <si>
+    <t>ZADANIE 7 - ANALIZA SPRZEDAŻY</t>
   </si>
   <si>
     <t>1. Rozbij kolumnę "Sprzedawca" na dwie osobne kolumny: "Imię" i "Nazwisko"</t>
@@ -481,145 +527,163 @@
     <t>Województwo</t>
   </si>
   <si>
+    <t>maj</t>
+  </si>
+  <si>
+    <t>Projektor multimedialny</t>
+  </si>
+  <si>
+    <t>Maria Dąbrowska</t>
+  </si>
+  <si>
+    <t>małopolskie</t>
+  </si>
+  <si>
+    <t>luty</t>
+  </si>
+  <si>
+    <t>Powerbank 20000mAh</t>
+  </si>
+  <si>
+    <t>Ewa Kowalczyk</t>
+  </si>
+  <si>
+    <t>podkarpackie</t>
+  </si>
+  <si>
+    <t>kwiecień</t>
+  </si>
+  <si>
+    <t>Smart TV 55"</t>
+  </si>
+  <si>
+    <t>Paweł Kwiatkowski</t>
+  </si>
+  <si>
+    <t>kujawsko-pomorskie</t>
+  </si>
+  <si>
+    <t>Piotr Wiśniewski</t>
+  </si>
+  <si>
+    <t>pomorskie</t>
+  </si>
+  <si>
+    <t>styczeń</t>
+  </si>
+  <si>
+    <t>Karta graficzna RTX</t>
+  </si>
+  <si>
+    <t>Anna Nowak</t>
+  </si>
+  <si>
+    <t>lubelskie</t>
+  </si>
+  <si>
+    <t>Pamięć RAM 16GB</t>
+  </si>
+  <si>
+    <t>Andrzej Woźniak</t>
+  </si>
+  <si>
+    <t>zachodniopomorskie</t>
+  </si>
+  <si>
+    <t>marzec</t>
+  </si>
+  <si>
+    <t>Odtwarzacz DVD</t>
+  </si>
+  <si>
+    <t>Monika Krawczyk</t>
+  </si>
+  <si>
+    <t>podlaskie</t>
+  </si>
+  <si>
+    <t>Głośnik Bluetooth</t>
+  </si>
+  <si>
+    <t>Michał Jankowski</t>
+  </si>
+  <si>
+    <t>wielkopolskie</t>
+  </si>
+  <si>
+    <t>świętokrzyskie</t>
+  </si>
+  <si>
     <t>czerwiec</t>
   </si>
   <si>
-    <t>Projektor multimedialny</t>
-  </si>
-  <si>
-    <t>Paweł Kwiatkowski</t>
+    <t>Katarzyna Mazur</t>
+  </si>
+  <si>
+    <t>mazowieckie</t>
+  </si>
+  <si>
+    <t>Klawiatura mechaniczna</t>
+  </si>
+  <si>
+    <t>Agnieszka Wojciechowska</t>
+  </si>
+  <si>
+    <t>Dysk SSD 1TB</t>
+  </si>
+  <si>
+    <t>Marcin Zieliński</t>
+  </si>
+  <si>
+    <t>dolnośląskie</t>
+  </si>
+  <si>
+    <t>Krzysztof Lewandowski</t>
+  </si>
+  <si>
+    <t>Słuchawki bezprzewodowe</t>
+  </si>
+  <si>
+    <t>Procesor i5</t>
+  </si>
+  <si>
+    <t>Barbara Kozłowska</t>
+  </si>
+  <si>
+    <t>opolskie</t>
+  </si>
+  <si>
+    <t>Smartphone 5G 128GB</t>
+  </si>
+  <si>
+    <t>łódzkie</t>
+  </si>
+  <si>
+    <t>Laptop Gaming i7</t>
+  </si>
+  <si>
+    <t>Jan Kowalski</t>
+  </si>
+  <si>
+    <t>Płyta główna</t>
   </si>
   <si>
     <t>warmińsko-mazurskie</t>
   </si>
   <si>
-    <t>styczeń</t>
+    <t>Magdalena Szymańska</t>
+  </si>
+  <si>
+    <t>Monitor 24" 4K</t>
+  </si>
+  <si>
+    <t>Router Wi-Fi 6</t>
+  </si>
+  <si>
+    <t>Tomasz Kamiński</t>
   </si>
   <si>
     <t>Konsola do gier</t>
-  </si>
-  <si>
-    <t>Katarzyna Mazur</t>
-  </si>
-  <si>
-    <t>dolnośląskie</t>
-  </si>
-  <si>
-    <t>maj</t>
-  </si>
-  <si>
-    <t>Zasilacz 650W</t>
-  </si>
-  <si>
-    <t>świętokrzyskie</t>
-  </si>
-  <si>
-    <t>marzec</t>
-  </si>
-  <si>
-    <t>Mysz gamingowa</t>
-  </si>
-  <si>
-    <t>Michał Jankowski</t>
-  </si>
-  <si>
-    <t>podlaskie</t>
-  </si>
-  <si>
-    <t>Smart TV 55"</t>
-  </si>
-  <si>
-    <t>Marcin Zieliński</t>
-  </si>
-  <si>
-    <t>zachodniopomorskie</t>
-  </si>
-  <si>
-    <t>Smartphone 5G 128GB</t>
-  </si>
-  <si>
-    <t>lubuskie</t>
-  </si>
-  <si>
-    <t>kwiecień</t>
-  </si>
-  <si>
-    <t>Słuchawki bezprzewodowe</t>
-  </si>
-  <si>
-    <t>Tomasz Kamiński</t>
-  </si>
-  <si>
-    <t>łódzkie</t>
-  </si>
-  <si>
-    <t>Router Wi-Fi 6</t>
-  </si>
-  <si>
-    <t>Anna Nowak</t>
-  </si>
-  <si>
-    <t>Monitor 24" 4K</t>
-  </si>
-  <si>
-    <t>śląskie</t>
-  </si>
-  <si>
-    <t>luty</t>
-  </si>
-  <si>
-    <t>Odtwarzacz DVD</t>
-  </si>
-  <si>
-    <t>Jan Kowalski</t>
-  </si>
-  <si>
-    <t>Dysk SSD 1TB</t>
-  </si>
-  <si>
-    <t>pomorskie</t>
-  </si>
-  <si>
-    <t>Procesor i5</t>
-  </si>
-  <si>
-    <t>Andrzej Woźniak</t>
-  </si>
-  <si>
-    <t>opolskie</t>
-  </si>
-  <si>
-    <t>Obudowa gamingowa</t>
-  </si>
-  <si>
-    <t>kujawsko-pomorskie</t>
-  </si>
-  <si>
-    <t>Magdalena Szymańska</t>
-  </si>
-  <si>
-    <t>Klawiatura mechaniczna</t>
-  </si>
-  <si>
-    <t>Monika Krawczyk</t>
-  </si>
-  <si>
-    <t>Głośnik Bluetooth</t>
-  </si>
-  <si>
-    <t>małopolskie</t>
-  </si>
-  <si>
-    <t>Barbara Kozłowska</t>
-  </si>
-  <si>
-    <t>Agnieszka Wojciechowska</t>
-  </si>
-  <si>
-    <t>podkarpackie</t>
-  </si>
-  <si>
-    <t>wielkopolskie</t>
   </si>
   <si>
     <t>Suma ceny sprzedaży:</t>
@@ -691,7 +755,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,12 +778,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9EAD3"/>
-        <bgColor rgb="FFFFF2CC"/>
       </patternFill>
     </fill>
   </fills>
@@ -750,7 +808,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -761,13 +819,12 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="2" borderId="1" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
-    <xf xfId="0" fontId="2" numFmtId="164" fillId="5" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="2" borderId="1" applyFont="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
@@ -1074,7 +1131,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A16" sqref="A16:G16"/>
@@ -1179,16 +1236,16 @@
         <v>19</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C17" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
@@ -1200,19 +1257,19 @@
         <v>20</v>
       </c>
       <c r="B18" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C18" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" s="3">
         <v>5</v>
       </c>
       <c r="E18" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F18" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" s="4"/>
     </row>
@@ -1224,13 +1281,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D19" s="3">
         <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1242,19 +1299,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="3">
+        <v>5</v>
+      </c>
+      <c r="C20" s="3">
+        <v>2</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>4</v>
       </c>
-      <c r="C20" s="3">
-        <v>3</v>
-      </c>
-      <c r="D20" s="3">
-        <v>5</v>
-      </c>
-      <c r="E20" s="3">
-        <v>3</v>
-      </c>
       <c r="F20" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G20" s="4"/>
     </row>
@@ -1263,19 +1320,19 @@
         <v>23</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" s="3">
         <v>3</v>
       </c>
       <c r="D21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F21" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G21" s="4"/>
     </row>
@@ -1284,19 +1341,19 @@
         <v>24</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C22" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E22" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G22" s="4"/>
     </row>
@@ -1305,16 +1362,16 @@
         <v>25</v>
       </c>
       <c r="B23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E23" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -1326,19 +1383,19 @@
         <v>26</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" s="3">
         <v>2</v>
       </c>
       <c r="E24" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F24" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4"/>
     </row>
@@ -1347,7 +1404,7 @@
         <v>27</v>
       </c>
       <c r="B25" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C25" s="3">
         <v>3</v>
@@ -1356,10 +1413,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25" s="4"/>
     </row>
@@ -1368,19 +1425,19 @@
         <v>28</v>
       </c>
       <c r="B26" s="3">
+        <v>6</v>
+      </c>
+      <c r="C26" s="3">
+        <v>3</v>
+      </c>
+      <c r="D26" s="3">
         <v>5</v>
       </c>
-      <c r="C26" s="3">
-        <v>5</v>
-      </c>
-      <c r="D26" s="3">
-        <v>4</v>
-      </c>
       <c r="E26" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F26" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="4"/>
     </row>
@@ -1389,19 +1446,19 @@
         <v>29</v>
       </c>
       <c r="B27" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F27" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1410,19 +1467,19 @@
         <v>30</v>
       </c>
       <c r="B28" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D28" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G28" s="4"/>
     </row>
@@ -1435,6 +1492,12 @@
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="2"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1468,7 +1531,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1488,7 +1551,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1498,29 +1561,29 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1528,99 +1591,99 @@
         <v>1</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1.5</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1.4</v>
       </c>
       <c r="D13" s="3">
-        <v>8</v>
-      </c>
-      <c r="E13" s="8"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="3">
         <v>2</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="7">
-        <v>0.6</v>
+        <v>43</v>
+      </c>
+      <c r="C14" s="8">
+        <v>4.6</v>
       </c>
       <c r="D14" s="3">
-        <v>5</v>
-      </c>
-      <c r="E14" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="3">
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="7">
-        <v>1.6</v>
+        <v>44</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1.3</v>
       </c>
       <c r="D15" s="3">
-        <v>6</v>
-      </c>
-      <c r="E15" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="3">
         <v>4</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7">
-        <v>4.7</v>
+        <v>45</v>
+      </c>
+      <c r="C16" s="8">
+        <v>4.5</v>
       </c>
       <c r="D16" s="3">
-        <v>6</v>
-      </c>
-      <c r="E16" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="3">
         <v>5</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7">
-        <v>2.2</v>
+        <v>46</v>
+      </c>
+      <c r="C17" s="8">
+        <v>3.2</v>
       </c>
       <c r="D17" s="3">
-        <v>4</v>
-      </c>
-      <c r="E17" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="3">
         <v>6</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7">
-        <v>4.3</v>
+        <v>47</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1.2</v>
       </c>
       <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="8"/>
+        <v>8</v>
+      </c>
+      <c r="E18" s="9"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>48</v>
+      </c>
+      <c r="E19" s="9"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -1637,10 +1700,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A13" sqref="A13:D37"/>
+      <selection activeCell="A13" sqref="A13:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1653,7 +1716,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1678,27 +1741,27 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13" t="s">
-        <v>53</v>
+      <c r="A13" s="12" t="s">
+        <v>54</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1706,85 +1769,85 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" s="7">
-        <v>12.13</v>
+        <v>55</v>
+      </c>
+      <c r="B15" s="8">
+        <v>30.43</v>
       </c>
       <c r="C15" s="3">
-        <v>12</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>39</v>
+      </c>
+      <c r="D15" s="9"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="7">
-        <v>19.4</v>
+        <v>56</v>
+      </c>
+      <c r="B16" s="8">
+        <v>25.72</v>
       </c>
       <c r="C16" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B17" s="7">
-        <v>19.82</v>
+        <v>57</v>
+      </c>
+      <c r="B17" s="8">
+        <v>25.27</v>
       </c>
       <c r="C17" s="3">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="D17" s="9"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="7">
-        <v>13.63</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16.6</v>
       </c>
       <c r="C18" s="3">
-        <v>43</v>
-      </c>
-      <c r="D18" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D18" s="9"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1.14</v>
+        <v>59</v>
+      </c>
+      <c r="B19" s="8">
+        <v>11.33</v>
       </c>
       <c r="C19" s="3">
-        <v>35</v>
-      </c>
-      <c r="D19" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D19" s="9"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="13"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="3"/>
@@ -1793,8 +1856,8 @@
       <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13" t="s">
-        <v>60</v>
+      <c r="A22" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1802,85 +1865,85 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="7">
-        <v>7.38</v>
+        <v>55</v>
+      </c>
+      <c r="B24" s="8">
+        <v>11.039999999999999</v>
       </c>
       <c r="C24" s="3">
-        <v>21</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="7">
-        <v>4.5</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="8">
+        <v>9.25</v>
       </c>
       <c r="C25" s="3">
-        <v>33</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="7">
-        <v>30.039999999999999</v>
+        <v>57</v>
+      </c>
+      <c r="B26" s="8">
+        <v>29.96</v>
       </c>
       <c r="C26" s="3">
-        <v>38</v>
-      </c>
-      <c r="D26" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="7">
-        <v>7.22</v>
+        <v>58</v>
+      </c>
+      <c r="B27" s="8">
+        <v>26.36</v>
       </c>
       <c r="C27" s="3">
-        <v>10</v>
-      </c>
-      <c r="D27" s="8"/>
+        <v>16</v>
+      </c>
+      <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="7">
-        <v>5.23</v>
+        <v>59</v>
+      </c>
+      <c r="B28" s="8">
+        <v>25.62</v>
       </c>
       <c r="C28" s="3">
-        <v>32</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
-      <c r="C29" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="14"/>
+      <c r="C29" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="13"/>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="3"/>
@@ -1889,8 +1952,8 @@
       <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13" t="s">
-        <v>62</v>
+      <c r="A31" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1898,89 +1961,97 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="7">
-        <v>12.46</v>
+        <v>55</v>
+      </c>
+      <c r="B33" s="8">
+        <v>10.11</v>
       </c>
       <c r="C33" s="3">
-        <v>10</v>
-      </c>
-      <c r="D33" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="7">
-        <v>12.66</v>
+        <v>56</v>
+      </c>
+      <c r="B34" s="8">
+        <v>14.09</v>
       </c>
       <c r="C34" s="3">
-        <v>10</v>
-      </c>
-      <c r="D34" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="7">
-        <v>18.77</v>
+        <v>57</v>
+      </c>
+      <c r="B35" s="8">
+        <v>8.2</v>
       </c>
       <c r="C35" s="3">
-        <v>38</v>
-      </c>
-      <c r="D35" s="8"/>
+        <v>27</v>
+      </c>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="7">
-        <v>30.31</v>
+        <v>58</v>
+      </c>
+      <c r="B36" s="8">
+        <v>9.78</v>
       </c>
       <c r="C36" s="3">
-        <v>33</v>
-      </c>
-      <c r="D36" s="8"/>
+        <v>22</v>
+      </c>
+      <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B37" s="7">
-        <v>6.63</v>
+        <v>59</v>
+      </c>
+      <c r="B37" s="8">
+        <v>3.17</v>
       </c>
       <c r="C37" s="3">
-        <v>14</v>
-      </c>
-      <c r="D37" s="8"/>
+        <v>26</v>
+      </c>
+      <c r="D37" s="9"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="C38" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="11"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="C40" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="D40" s="12"/>
+      <c r="C40" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2000,10 +2071,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A11" sqref="A11:L19"/>
+      <selection activeCell="A11" sqref="A11:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2023,93 +2094,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="15" t="s">
-        <v>65</v>
+      <c r="A1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:12">
-      <c r="A11" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="B11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="H11" s="16" t="s">
+      <c r="G11" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="K11" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="L11" s="16" t="s">
+      <c r="J11" s="15" t="s">
         <v>79</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4"/>
       <c r="B12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D12" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E12" s="3">
         <v>4</v>
@@ -2118,16 +2189,16 @@
         <v>2</v>
       </c>
       <c r="G12" s="3">
+        <v>2</v>
+      </c>
+      <c r="H12" s="3">
         <v>3</v>
       </c>
-      <c r="H12" s="3">
-        <v>5</v>
-      </c>
       <c r="I12" s="3">
         <v>2</v>
       </c>
       <c r="J12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
@@ -2135,28 +2206,28 @@
     <row r="13" spans="1:12">
       <c r="A13" s="4"/>
       <c r="B13" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F13" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G13" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J13" s="3">
         <v>2</v>
@@ -2167,13 +2238,13 @@
     <row r="14" spans="1:12">
       <c r="A14" s="4"/>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="3">
         <v>6</v>
@@ -2182,16 +2253,16 @@
         <v>5</v>
       </c>
       <c r="G14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J14" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
@@ -2199,31 +2270,31 @@
     <row r="15" spans="1:12">
       <c r="A15" s="4"/>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F15" s="3">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>5</v>
+      </c>
+      <c r="H15" s="3">
+        <v>5</v>
+      </c>
+      <c r="I15" s="3">
         <v>6</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>6</v>
-      </c>
-      <c r="H15" s="3">
-        <v>6</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>5</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
@@ -2231,31 +2302,31 @@
     <row r="16" spans="1:12">
       <c r="A16" s="4"/>
       <c r="B16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D16" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E16" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J16" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
@@ -2263,28 +2334,28 @@
     <row r="17" spans="1:12">
       <c r="A17" s="4"/>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D17" s="3">
+        <v>2</v>
+      </c>
+      <c r="E17" s="3">
         <v>4</v>
-      </c>
-      <c r="E17" s="3">
-        <v>3</v>
       </c>
       <c r="F17" s="3">
         <v>3</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" s="3">
         <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J17" s="3">
         <v>4</v>
@@ -2293,42 +2364,106 @@
       <c r="L17" s="4"/>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
+      <c r="E18" s="3">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>3</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
     </row>
     <row r="19" spans="1:12">
-      <c r="A19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="3">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2</v>
+      </c>
+      <c r="G19" s="3">
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>4</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="3">
+        <v>2</v>
+      </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:K1"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D21:L21"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2341,10 +2476,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A28" sqref="A28:B30"/>
+      <selection activeCell="A32" sqref="A32:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2355,227 +2490,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="15" t="s">
-        <v>94</v>
+      <c r="A1" s="14" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8953</v>
+        <v>109</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C11" s="8">
+        <v>6869</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="7">
-        <v>14829</v>
+        <v>110</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1986</v>
+      </c>
+      <c r="C12" s="8">
+        <v>6140</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="7">
-        <v>7352</v>
+        <v>111</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1983</v>
+      </c>
+      <c r="C13" s="8">
+        <v>7390</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="7">
-        <v>5476</v>
+        <v>112</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C14" s="8">
+        <v>9034</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10798</v>
+        <v>113</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1995</v>
+      </c>
+      <c r="C15" s="8">
+        <v>4584</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="7">
-        <v>13554</v>
+      <c r="B16" s="3">
+        <v>1978</v>
+      </c>
+      <c r="C16" s="8">
+        <v>5328</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="7">
-        <v>14152</v>
+      <c r="B17" s="3">
+        <v>1999</v>
+      </c>
+      <c r="C17" s="8">
+        <v>12713</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C18" s="7">
-        <v>12441</v>
+        <v>116</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1992</v>
+      </c>
+      <c r="C18" s="8">
+        <v>2546</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C19" s="7">
-        <v>13376</v>
+        <v>117</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C19" s="8">
+        <v>11129</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="7">
-        <v>14215</v>
+        <v>118</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1991</v>
+      </c>
+      <c r="C20" s="8">
+        <v>2626</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="7">
-        <v>8603</v>
+        <v>119</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C21" s="8">
+        <v>12105</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="7">
-        <v>2636</v>
+        <v>120</v>
+      </c>
+      <c r="B22" s="3">
+        <v>1994</v>
+      </c>
+      <c r="C22" s="8">
+        <v>7854</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C23" s="7">
-        <v>4197</v>
+        <v>121</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1980</v>
+      </c>
+      <c r="C23" s="8">
+        <v>13214</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="7">
-        <v>9473</v>
+        <v>122</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C24" s="8">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="8">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2002</v>
+      </c>
+      <c r="C26" s="8">
+        <v>12412</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="17" t="s">
-        <v>131</v>
+      <c r="A27" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1997</v>
+      </c>
+      <c r="C27" s="8">
+        <v>12252</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>133</v>
-      </c>
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
-        <v>134</v>
-      </c>
-      <c r="B30" s="6"/>
+      <c r="A28" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1990</v>
+      </c>
+      <c r="C28" s="8">
+        <v>12048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="7"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>128</v>
+      </c>
+      <c r="B34" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
@@ -2592,10 +2771,221 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A46" sqref="A46:B50"/>
+      <selection activeCell="A10" sqref="A10:C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18" customWidth="true" style="0"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" s="3">
+        <v>156</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="3">
+        <v>138</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B13" s="3">
+        <v>103</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="3">
+        <v>159</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B15" s="3">
+        <v>180</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="3">
+        <v>106</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="3">
+        <v>152</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B18" s="3">
+        <v>155</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="3">
+        <v>154</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="3">
+        <v>168</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="3">
+        <v>118</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B22" s="3">
+        <v>92</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="3">
+        <v>158</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" s="3">
+        <v>182</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="3">
+        <v>195</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B26" s="3">
+        <v>102</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A49" sqref="A49:B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2610,86 +3000,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="15" t="s">
-        <v>135</v>
+      <c r="A1" s="14" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2697,22 +3087,22 @@
         <v>1</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D16" s="7">
-        <v>1363</v>
-      </c>
-      <c r="E16" s="7">
-        <v>1567</v>
+        <v>169</v>
+      </c>
+      <c r="D16" s="8">
+        <v>964</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1234</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2720,22 +3110,22 @@
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" s="7">
-        <v>1057</v>
-      </c>
-      <c r="E17" s="7">
-        <v>1173</v>
+        <v>173</v>
+      </c>
+      <c r="D17" s="8">
+        <v>731</v>
+      </c>
+      <c r="E17" s="8">
+        <v>914</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2743,22 +3133,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1099</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1352</v>
+        <v>177</v>
+      </c>
+      <c r="D18" s="8">
+        <v>1151</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1312</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2766,22 +3156,22 @@
         <v>4</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1101</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1475</v>
+        <v>173</v>
+      </c>
+      <c r="D19" s="8">
+        <v>1305</v>
+      </c>
+      <c r="E19" s="8">
+        <v>1827</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2789,22 +3179,22 @@
         <v>5</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D20" s="7">
-        <v>1118</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1532</v>
+        <v>183</v>
+      </c>
+      <c r="D20" s="8">
+        <v>1176</v>
+      </c>
+      <c r="E20" s="8">
+        <v>1399</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2812,22 +3202,22 @@
         <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1372</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1825</v>
+        <v>186</v>
+      </c>
+      <c r="D21" s="8">
+        <v>670</v>
+      </c>
+      <c r="E21" s="8">
+        <v>737</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2835,22 +3225,22 @@
         <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1395</v>
-      </c>
-      <c r="E22" s="7">
-        <v>1758</v>
+        <v>190</v>
+      </c>
+      <c r="D22" s="8">
+        <v>1314</v>
+      </c>
+      <c r="E22" s="8">
+        <v>1761</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2858,22 +3248,22 @@
         <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D23" s="7">
-        <v>1329</v>
-      </c>
-      <c r="E23" s="7">
-        <v>1515</v>
+        <v>186</v>
+      </c>
+      <c r="D23" s="8">
+        <v>1357</v>
+      </c>
+      <c r="E23" s="8">
+        <v>1683</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2881,22 +3271,22 @@
         <v>9</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" s="7">
-        <v>899</v>
-      </c>
-      <c r="E24" s="7">
-        <v>1259</v>
+        <v>193</v>
+      </c>
+      <c r="D24" s="8">
+        <v>1243</v>
+      </c>
+      <c r="E24" s="8">
+        <v>1740</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2904,22 +3294,22 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D25" s="7">
-        <v>1435</v>
-      </c>
-      <c r="E25" s="7">
-        <v>1765</v>
+        <v>186</v>
+      </c>
+      <c r="D25" s="8">
+        <v>1362</v>
+      </c>
+      <c r="E25" s="8">
+        <v>1893</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2927,22 +3317,22 @@
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D26" s="7">
-        <v>1155</v>
-      </c>
-      <c r="E26" s="7">
-        <v>1467</v>
+        <v>177</v>
+      </c>
+      <c r="D26" s="8">
+        <v>604</v>
+      </c>
+      <c r="E26" s="8">
+        <v>743</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2950,22 +3340,22 @@
         <v>12</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="7">
-        <v>715</v>
-      </c>
-      <c r="E27" s="7">
-        <v>987</v>
+        <v>200</v>
+      </c>
+      <c r="D27" s="8">
+        <v>1296</v>
+      </c>
+      <c r="E27" s="8">
+        <v>1490</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2973,22 +3363,22 @@
         <v>13</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1334</v>
-      </c>
-      <c r="E28" s="7">
-        <v>1561</v>
+        <v>202</v>
+      </c>
+      <c r="D28" s="8">
+        <v>1055</v>
+      </c>
+      <c r="E28" s="8">
+        <v>1192</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2996,22 +3386,22 @@
         <v>14</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="D29" s="7">
-        <v>1471</v>
-      </c>
-      <c r="E29" s="7">
-        <v>1677</v>
+        <v>169</v>
+      </c>
+      <c r="D29" s="8">
+        <v>1283</v>
+      </c>
+      <c r="E29" s="8">
+        <v>1617</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>172</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -3019,22 +3409,22 @@
         <v>15</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="7">
-        <v>1232</v>
-      </c>
-      <c r="E30" s="7">
-        <v>1355</v>
+        <v>206</v>
+      </c>
+      <c r="D30" s="8">
+        <v>1135</v>
+      </c>
+      <c r="E30" s="8">
+        <v>1544</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -3042,22 +3432,22 @@
         <v>16</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D31" s="7">
-        <v>712</v>
-      </c>
-      <c r="E31" s="7">
-        <v>997</v>
+        <v>207</v>
+      </c>
+      <c r="D31" s="8">
+        <v>740</v>
+      </c>
+      <c r="E31" s="8">
+        <v>858</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -3065,22 +3455,22 @@
         <v>17</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="7">
-        <v>1208</v>
-      </c>
-      <c r="E32" s="7">
-        <v>1401</v>
+        <v>190</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1299</v>
+      </c>
+      <c r="E32" s="8">
+        <v>1637</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -3088,22 +3478,22 @@
         <v>18</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D33" s="7">
-        <v>1396</v>
-      </c>
-      <c r="E33" s="7">
-        <v>1564</v>
+        <v>200</v>
+      </c>
+      <c r="D33" s="8">
+        <v>709</v>
+      </c>
+      <c r="E33" s="8">
+        <v>908</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>159</v>
+        <v>191</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -3111,22 +3501,22 @@
         <v>19</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D34" s="7">
-        <v>724</v>
-      </c>
-      <c r="E34" s="7">
-        <v>854</v>
+        <v>210</v>
+      </c>
+      <c r="D34" s="8">
+        <v>771</v>
+      </c>
+      <c r="E34" s="8">
+        <v>1033</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -3134,22 +3524,22 @@
         <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1235</v>
-      </c>
-      <c r="E35" s="7">
-        <v>1544</v>
+        <v>210</v>
+      </c>
+      <c r="D35" s="8">
+        <v>944</v>
+      </c>
+      <c r="E35" s="8">
+        <v>1086</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -3157,22 +3547,22 @@
         <v>21</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1061</v>
-      </c>
-      <c r="E36" s="7">
-        <v>1316</v>
+        <v>212</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1488</v>
+      </c>
+      <c r="E36" s="8">
+        <v>1890</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -3180,22 +3570,22 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="D37" s="7">
-        <v>1408</v>
-      </c>
-      <c r="E37" s="7">
-        <v>1788</v>
+        <v>173</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1481</v>
+      </c>
+      <c r="E37" s="8">
+        <v>2059</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -3203,22 +3593,22 @@
         <v>23</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D38" s="7">
-        <v>1344</v>
-      </c>
-      <c r="E38" s="7">
-        <v>1532</v>
+        <v>214</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1283</v>
+      </c>
+      <c r="E38" s="8">
+        <v>1514</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -3226,22 +3616,22 @@
         <v>24</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="7">
-        <v>1178</v>
-      </c>
-      <c r="E39" s="7">
-        <v>1449</v>
+        <v>177</v>
+      </c>
+      <c r="D39" s="8">
+        <v>1200</v>
+      </c>
+      <c r="E39" s="8">
+        <v>1404</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>166</v>
+        <v>194</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -3249,22 +3639,22 @@
         <v>25</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="7">
-        <v>828</v>
-      </c>
-      <c r="E40" s="7">
-        <v>1018</v>
+        <v>183</v>
+      </c>
+      <c r="D40" s="8">
+        <v>1489</v>
+      </c>
+      <c r="E40" s="8">
+        <v>1653</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -3272,22 +3662,22 @@
         <v>26</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="D41" s="7">
-        <v>606</v>
-      </c>
-      <c r="E41" s="7">
-        <v>727</v>
+        <v>206</v>
+      </c>
+      <c r="D41" s="8">
+        <v>1004</v>
+      </c>
+      <c r="E41" s="8">
+        <v>1165</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -3295,58 +3685,127 @@
         <v>27</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D42" s="7">
-        <v>1438</v>
-      </c>
-      <c r="E42" s="7">
-        <v>1855</v>
+        <v>217</v>
+      </c>
+      <c r="D42" s="8">
+        <v>1131</v>
+      </c>
+      <c r="E42" s="8">
+        <v>1436</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>160</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="3">
+        <v>28</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1165</v>
+      </c>
+      <c r="E43" s="8">
+        <v>1584</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="3">
+        <v>29</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="8">
+        <v>584</v>
+      </c>
+      <c r="E44" s="8">
+        <v>783</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:7">
-      <c r="A45" s="17" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
-        <v>201</v>
-      </c>
-      <c r="B47" s="6"/>
+      <c r="A45" s="3">
+        <v>30</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D45" s="8">
+        <v>1265</v>
+      </c>
+      <c r="E45" s="8">
+        <v>1455</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="48" spans="1:7">
-      <c r="A48" t="s">
-        <v>202</v>
-      </c>
-      <c r="B48" s="6"/>
+      <c r="A48" s="16" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" t="s">
-        <v>203</v>
-      </c>
-      <c r="B49" s="6"/>
+        <v>221</v>
+      </c>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" t="s">
-        <v>204</v>
-      </c>
-      <c r="B50" s="6"/>
+        <v>222</v>
+      </c>
+      <c r="B50" s="7"/>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>223</v>
+      </c>
+      <c r="B51" s="7"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>224</v>
+      </c>
+      <c r="B52" s="7"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>225</v>
+      </c>
+      <c r="B53" s="7"/>
     </row>
   </sheetData>
   <mergeCells>
